--- a/data/hotels_by_city/Houston/Houston_shard_331.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_331.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55704-d11717316-Reviews-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-NW-Cypress-Grand-Pky.h15849772.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,204 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r594010935-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>11717316</t>
+  </si>
+  <si>
+    <t>594010935</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Nice new, clean hotel within walking distance to Houston Premium Outlets</t>
+  </si>
+  <si>
+    <t>I spent 1 night here as I was working at the Houston Premium Outlets. The HI Express is new, very clean, and the room with Kurig coffee machine and bed are very comfortable. The breakfast buffet was better than I was expecting and enjoyed it very much. Only good vibes from this new hotel - even if there is nothing around it. Would recommend.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r588654896-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>588654896</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Overcharged</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town for a funeral. After checking out had found out hotel had overcharged for my stay. Original reservation was confirmed at $435 and when I received my credit card statement I was charged $526. Multiple calls and messages left for the manager Ashley were never returned or answered. Do not trust this property and their sketchy practices.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Luis M, Director of Sales at Holiday Inn Express &amp; Suites Houston NW - Cypress Grand Pky, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town for a funeral. After checking out had found out hotel had overcharged for my stay. Original reservation was confirmed at $435 and when I received my credit card statement I was charged $526. Multiple calls and messages left for the manager Ashley were never returned or answered. Do not trust this property and their sketchy practices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r572915355-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>572915355</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Very nice motel</t>
+  </si>
+  <si>
+    <t>Would stay here every time I come to Cypress, very nice newer motel with very good amenities, Beer and tacos in the lobby in Tues and Wed with the staff.  Typical breakfast for a holiday inn with biscuits and gravy along with eggs and pancakes.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r539563811-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>539563811</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is one of the nicest hotels I have ever stayed in.  It was very, very clean.  My only complaint is that we had to wait for breakfast to get restocked and it was 9:15.   I feel like breakfast should have been kept stocked until 10 AM when it closed.  </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r531238046-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>531238046</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>BEAUTIFUL HOTEL</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and is built with you in mind. A million plug ins for charges, usb connections , table light with different settings for brightness, a mini fridge that is roomy, a beautiful closet, but there are some things they could work on. SERVICE IS LACKING BIG TIME from their GM to their manager. Their associates are the only ones trying to help you. The customer should be first and I am not sure if that is how they feel as a whole team. Housekeeping seems overwhelmed. I do not know how much staff they have but maybe hiring more house keepers is needed. Their breakfast bar is nice except the apples seem like no one cleans them before putting them out as well as their apples have been slightly going toward being not something you would want to serve guests. My Husband and I went here on vacation and until these things can be solved don't seem like we will be checking back in anytime soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and is built with you in mind. A million plug ins for charges, usb connections , table light with different settings for brightness, a mini fridge that is roomy, a beautiful closet, but there are some things they could work on. SERVICE IS LACKING BIG TIME from their GM to their manager. Their associates are the only ones trying to help you. The customer should be first and I am not sure if that is how they feel as a whole team. Housekeeping seems overwhelmed. I do not know how much staff they have but maybe hiring more house keepers is needed. Their breakfast bar is nice except the apples seem like no one cleans them before putting them out as well as their apples have been slightly going toward being not something you would want to serve guests. My Husband and I went here on vacation and until these things can be solved don't seem like we will be checking back in anytime soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r528800166-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>528800166</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Great Time</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful hotel, new I think to the area. Staff was friendly and fun. Breakfast was excellent! Plan on going back. Location was near the outlets. Made for easy shopping. Several options for food.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r507165082-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>507165082</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Great location, Brand New, Very User Friendly for Business Travelers</t>
+  </si>
+  <si>
+    <t>My husband and I just stayed there this week as our daughter lives in Cypress.  Great location - this hotel is brand new - Is literally in the same parking lot as the Premium Outlet Mall.  VERY nice hotel - the room is extremely functional - would be great for business travelers.  Has a nice desk and chair plus a second long desk.  Has many outlets, charger stations and internet accessibility ports.  Room is large - we had a king size bed which was very comfortable plus there is a full size couch and coffee table. Has refrigerator and microwave.The bathroom is large - GREAT shower!The complimentary breakfast was very good - they had a great assortment of choices and the food was good.  Everything is very clean and bright!  Very friendly staff - will definitely stay there again next time we are in the area!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>My husband and I just stayed there this week as our daughter lives in Cypress.  Great location - this hotel is brand new - Is literally in the same parking lot as the Premium Outlet Mall.  VERY nice hotel - the room is extremely functional - would be great for business travelers.  Has a nice desk and chair plus a second long desk.  Has many outlets, charger stations and internet accessibility ports.  Room is large - we had a king size bed which was very comfortable plus there is a full size couch and coffee table. Has refrigerator and microwave.The bathroom is large - GREAT shower!The complimentary breakfast was very good - they had a great assortment of choices and the food was good.  Everything is very clean and bright!  Very friendly staff - will definitely stay there again next time we are in the area!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r496318800-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>496318800</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Perfect for wedding guests</t>
+  </si>
+  <si>
+    <t>Our daughter got married at Lindsay Lakes  in Cypress and many guests were from out of state. We booked a block of rooms for a great price to accommodate these guests.The staff was very friendly and the hotel, since new, was exceptionally clean! There was a perfect seating area/space in the lobby for us to sit and catch up with family and the morning breakfast was perfect for the same reason. Best of all, the location couldn't have been more perfect. Our guests were able to walk to shopping and restaurants while we were tied up with wedding details. We couldn't have picked a better hotel for the wedding!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r495217772-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>495217772</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Great New Hotel a 5-min walk from Houston Premium Outlets</t>
+  </si>
+  <si>
+    <t>We were delighted to find this hotel which was just a 5-min walk away from the Houston Premium Outlets in Cypress. We were also very fortunate that it was opened just 1 week before our stay in June. When we checked-in, we were pleasantly greeted by friendly counter staff. They were very helpful and ensured we got connecting rooms, a 1 King Deluxe Nonsmoke to a 2 Queen Beds Nonsmoke, on the 3rd floor. The rooms were spacious, smelt good, spotless and the beds were very comfortable. There was also a large bathroom with complimentary toiletries, lots of desk/luggage space, a day bed in the corner of the room and a mini fridge/microwave area to prepare snacks and meals. Being a new hotel, all the facilities were clean and brand new. There was also ample complimentary parking on site, a mini-grocery section, a conference room, a business centre, a gym and a swimming pool on the premises as well as a Shell gas station with a convenience store right behind the hotel. The hotel is also a 5-minute drive away from shopping and food outlets including Marshalls, Tomiko Japanese, Sergio's Mexican Grill, Chick-fil-A, Whataburger, Party City, Academy Sports, McDonald's and H-E-B Grocery. We had a great 1-night stay at the hotel except for a minor hiccup (which explains the 4 circle rating). The hotel provides a Complimentary Breakfast to all guests until 10am, but the morning we were there, the...We were delighted to find this hotel which was just a 5-min walk away from the Houston Premium Outlets in Cypress. We were also very fortunate that it was opened just 1 week before our stay in June. When we checked-in, we were pleasantly greeted by friendly counter staff. They were very helpful and ensured we got connecting rooms, a 1 King Deluxe Nonsmoke to a 2 Queen Beds Nonsmoke, on the 3rd floor. The rooms were spacious, smelt good, spotless and the beds were very comfortable. There was also a large bathroom with complimentary toiletries, lots of desk/luggage space, a day bed in the corner of the room and a mini fridge/microwave area to prepare snacks and meals. Being a new hotel, all the facilities were clean and brand new. There was also ample complimentary parking on site, a mini-grocery section, a conference room, a business centre, a gym and a swimming pool on the premises as well as a Shell gas station with a convenience store right behind the hotel. The hotel is also a 5-minute drive away from shopping and food outlets including Marshalls, Tomiko Japanese, Sergio's Mexican Grill, Chick-fil-A, Whataburger, Party City, Academy Sports, McDonald's and H-E-B Grocery. We had a great 1-night stay at the hotel except for a minor hiccup (which explains the 4 circle rating). The hotel provides a Complimentary Breakfast to all guests until 10am, but the morning we were there, the sausages and ham were gone by 9.45am, and we were told there would be no more refills. Fortunately, a lady-in-charge was agreeable to the breakfast lady preparing more, and they were served to us a half-hour later. Another point to note was unlike other buffets which would still be accessible whilst it was being cleared up, there were doors to this buffet area that were shut promptly without notice at 10am, so to enjoy this breakfast spread, please be as early as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We were delighted to find this hotel which was just a 5-min walk away from the Houston Premium Outlets in Cypress. We were also very fortunate that it was opened just 1 week before our stay in June. When we checked-in, we were pleasantly greeted by friendly counter staff. They were very helpful and ensured we got connecting rooms, a 1 King Deluxe Nonsmoke to a 2 Queen Beds Nonsmoke, on the 3rd floor. The rooms were spacious, smelt good, spotless and the beds were very comfortable. There was also a large bathroom with complimentary toiletries, lots of desk/luggage space, a day bed in the corner of the room and a mini fridge/microwave area to prepare snacks and meals. Being a new hotel, all the facilities were clean and brand new. There was also ample complimentary parking on site, a mini-grocery section, a conference room, a business centre, a gym and a swimming pool on the premises as well as a Shell gas station with a convenience store right behind the hotel. The hotel is also a 5-minute drive away from shopping and food outlets including Marshalls, Tomiko Japanese, Sergio's Mexican Grill, Chick-fil-A, Whataburger, Party City, Academy Sports, McDonald's and H-E-B Grocery. We had a great 1-night stay at the hotel except for a minor hiccup (which explains the 4 circle rating). The hotel provides a Complimentary Breakfast to all guests until 10am, but the morning we were there, the...We were delighted to find this hotel which was just a 5-min walk away from the Houston Premium Outlets in Cypress. We were also very fortunate that it was opened just 1 week before our stay in June. When we checked-in, we were pleasantly greeted by friendly counter staff. They were very helpful and ensured we got connecting rooms, a 1 King Deluxe Nonsmoke to a 2 Queen Beds Nonsmoke, on the 3rd floor. The rooms were spacious, smelt good, spotless and the beds were very comfortable. There was also a large bathroom with complimentary toiletries, lots of desk/luggage space, a day bed in the corner of the room and a mini fridge/microwave area to prepare snacks and meals. Being a new hotel, all the facilities were clean and brand new. There was also ample complimentary parking on site, a mini-grocery section, a conference room, a business centre, a gym and a swimming pool on the premises as well as a Shell gas station with a convenience store right behind the hotel. The hotel is also a 5-minute drive away from shopping and food outlets including Marshalls, Tomiko Japanese, Sergio's Mexican Grill, Chick-fil-A, Whataburger, Party City, Academy Sports, McDonald's and H-E-B Grocery. We had a great 1-night stay at the hotel except for a minor hiccup (which explains the 4 circle rating). The hotel provides a Complimentary Breakfast to all guests until 10am, but the morning we were there, the sausages and ham were gone by 9.45am, and we were told there would be no more refills. Fortunately, a lady-in-charge was agreeable to the breakfast lady preparing more, and they were served to us a half-hour later. Another point to note was unlike other buffets which would still be accessible whilst it was being cleared up, there were doors to this buffet area that were shut promptly without notice at 10am, so to enjoy this breakfast spread, please be as early as possible.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +736,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +768,628 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_331.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r601303176-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>11717316</t>
+  </si>
+  <si>
+    <t>601303176</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been here for two weeks for business. </t>
+  </si>
+  <si>
+    <t>Actually, hotel is very nice.  Evening staff is amazing, friendly and accommodating.  Rooms could be a little cleaner, but I’m kind of a freak about clean floors.    Breakfast is very good and they always have fresh fruit.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Luis M, Director of Sales at Holiday Inn Express &amp; Suites Houston NW - Cypress Grand Pky, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Actually, hotel is very nice.  Evening staff is amazing, friendly and accommodating.  Rooms could be a little cleaner, but I’m kind of a freak about clean floors.    Breakfast is very good and they always have fresh fruit.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r529130017-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>529130017</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Surprise Birthday Party</t>
+  </si>
+  <si>
+    <t>My fiancee and I traveled here bc it was the closest hotel we could locate. We had plans in Hempstead, TX and found this hotel to be the best in the vicinity. Newly opened, very clean, staff is incredibly friendly and it sits within walking distance to an outlet mall. Great for shopping and getting a bite to eat. If you're unfamiliar with the Greater Houston area, and you're going to rent a car; You owe it to yourself to get the EZ pass/ Toll pass. Toll roads in Houston are NO CASH. Get the TX Pass, etc.Bed was clean, bathroom as well, well lit parking lot. Only gripes I could think of was the pool water was cold, and getting ice required me to get the assistance of the staff to get it from the kitchen area. We will be back to visit this location again. BTW, during college football season, Texas A&amp;M will flood US Route 290 with traffic. Be prepared if you're going when Tx A&amp;M is having a home game. Its worse than black friday.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My fiancee and I traveled here bc it was the closest hotel we could locate. We had plans in Hempstead, TX and found this hotel to be the best in the vicinity. Newly opened, very clean, staff is incredibly friendly and it sits within walking distance to an outlet mall. Great for shopping and getting a bite to eat. If you're unfamiliar with the Greater Houston area, and you're going to rent a car; You owe it to yourself to get the EZ pass/ Toll pass. Toll roads in Houston are NO CASH. Get the TX Pass, etc.Bed was clean, bathroom as well, well lit parking lot. Only gripes I could think of was the pool water was cold, and getting ice required me to get the assistance of the staff to get it from the kitchen area. We will be back to visit this location again. BTW, during college football season, Texas A&amp;M will flood US Route 290 with traffic. Be prepared if you're going when Tx A&amp;M is having a home game. Its worse than black friday.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r594010935-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
   </si>
   <si>
-    <t>55704</t>
-  </si>
-  <si>
-    <t>11717316</t>
-  </si>
-  <si>
     <t>594010935</t>
   </si>
   <si>
@@ -174,9 +228,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r588654896-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
   </si>
   <si>
@@ -192,9 +243,6 @@
     <t>Stayed at this hotel while in town for a funeral. After checking out had found out hotel had overcharged for my stay. Original reservation was confirmed at $435 and when I received my credit card statement I was charged $526. Multiple calls and messages left for the manager Ashley were never returned or answered. Do not trust this property and their sketchy practices.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Luis M, Director of Sales at Holiday Inn Express &amp; Suites Houston NW - Cypress Grand Pky, responded to this reviewResponded June 20, 2018</t>
   </si>
   <si>
@@ -222,6 +270,45 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r560138276-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>560138276</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Great stay for a a business trip!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to say this was a great place to stay during a recent business trip! Service was friendly, rooms were clean and spacious, &amp; the fitness center was very well equipped for a smaller hotel. This hotel was quiet and had great bedding. I was pleasantly surprised by the egg white omelet &amp; turkey sausage served on the complimentary breakfast bar. This was a great option. The location was great and gave us easy access to the various areas of Houston we were traveling. Overall vary pleasant stay. My only complaint was the weather and that was not the staff’s fault. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r540986697-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>540986697</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>lovely property totally modern</t>
+  </si>
+  <si>
+    <t>we spent a night here , for shopping, and its at the door step of the Houston premium outlets. loved the modern decor, very nice staff, i was late for breakfast, and she was kind enough to arrange something for us.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r539563811-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
   </si>
   <si>
@@ -240,9 +327,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r531238046-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
   </si>
   <si>
@@ -282,7 +366,40 @@
     <t>Absolutely beautiful hotel, new I think to the area. Staff was friendly and fun. Breakfast was excellent! Plan on going back. Location was near the outlets. Made for easy shopping. Several options for food.</t>
   </si>
   <si>
-    <t>September 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r525280041-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>525280041</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>beautiful new hotel, ultimate hospitality</t>
+  </si>
+  <si>
+    <t>Was in Cypress for business- hotel is brand new and beautiful. AREA: Right next to the Premium Outlet Mall-grocery store and restaurants near by. STAFF: Felt welcomed from the moment I came in- front desk staff was excellent-answering questions about the area, offering suggestions on restaurants and overall friendly. When requesting a late check out, the staff was accommodating, which is always appreciated. The housekeeping staff was also excellent- great attention to detail when cleaning room.I was able to observe the managers with the staff and appreciate the level of respect across all levels. It is clear they build a strong team. ROOM:  I had a room with two beds and a shower/bath. (I heard the King bed rooms only have showers).FACILITIES: The meeting room had all the necessities including a TV to link computer to for visual and staff was available to support. Gym had all the equipment you could need-weights, elliptical, bike, rowing machine, foam roller and yoga mat. Nice little outdoor pool. Washer and Dryer on site- and the front desk had plenty of quarters. Highly recommend- I am a customer for life with these folks!MoreShow less</t>
+  </si>
+  <si>
+    <t>Was in Cypress for business- hotel is brand new and beautiful. AREA: Right next to the Premium Outlet Mall-grocery store and restaurants near by. STAFF: Felt welcomed from the moment I came in- front desk staff was excellent-answering questions about the area, offering suggestions on restaurants and overall friendly. When requesting a late check out, the staff was accommodating, which is always appreciated. The housekeeping staff was also excellent- great attention to detail when cleaning room.I was able to observe the managers with the staff and appreciate the level of respect across all levels. It is clear they build a strong team. ROOM:  I had a room with two beds and a shower/bath. (I heard the King bed rooms only have showers).FACILITIES: The meeting room had all the necessities including a TV to link computer to for visual and staff was available to support. Gym had all the equipment you could need-weights, elliptical, bike, rowing machine, foam roller and yoga mat. Nice little outdoor pool. Washer and Dryer on site- and the front desk had plenty of quarters. Highly recommend- I am a customer for life with these folks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r509717872-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>509717872</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Newly renovated, easy acess to highway, walking distance to major Outlet Mall</t>
+  </si>
+  <si>
+    <t>Nice new rooms, many power outlets and USB hook up sites right in the walls.Major outlet mall is right next door, easy walk to and from. In case you are bored or feel the need to shop. Pool on site. Standard breakfast buffet fare, a good start to the day. Convenience store on the back side of the building for late night snacking.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11717316-r507165082-Holiday_Inn_Express_Suites_Houston_NW_Cypress_Grand_Pky-Cypress_Texas.html</t>
@@ -298,9 +415,6 @@
   </si>
   <si>
     <t>My husband and I just stayed there this week as our daughter lives in Cypress.  Great location - this hotel is brand new - Is literally in the same parking lot as the Premium Outlet Mall.  VERY nice hotel - the room is extremely functional - would be great for business travelers.  Has a nice desk and chair plus a second long desk.  Has many outlets, charger stations and internet accessibility ports.  Room is large - we had a king size bed which was very comfortable plus there is a full size couch and coffee table. Has refrigerator and microwave.The bathroom is large - GREAT shower!The complimentary breakfast was very good - they had a great assortment of choices and the food was good.  Everything is very clean and bright!  Very friendly staff - will definitely stay there again next time we are in the area!!!!MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2017</t>
   </si>
   <si>
     <t>My husband and I just stayed there this week as our daughter lives in Cypress.  Great location - this hotel is brand new - Is literally in the same parking lot as the Premium Outlet Mall.  VERY nice hotel - the room is extremely functional - would be great for business travelers.  Has a nice desk and chair plus a second long desk.  Has many outlets, charger stations and internet accessibility ports.  Room is large - we had a king size bed which was very comfortable plus there is a full size couch and coffee table. Has refrigerator and microwave.The bathroom is large - GREAT shower!The complimentary breakfast was very good - they had a great assortment of choices and the food was good.  Everything is very clean and bright!  Very friendly staff - will definitely stay there again next time we are in the area!!!!More</t>
@@ -877,7 +991,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -886,22 +1000,22 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -917,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -926,49 +1040,43 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -984,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -993,39 +1101,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1153,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1050,39 +1162,49 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1098,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1107,38 +1229,32 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1161,7 +1277,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1170,25 +1286,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1202,7 +1318,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1218,7 +1334,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1227,32 +1343,34 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1263,7 +1381,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1279,7 +1397,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1288,45 +1406,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1342,7 +1454,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1351,37 +1463,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1389,7 +1501,375 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65506</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
